--- a/outputs/MLK_PMT_10104_-_V-004.xlsx
+++ b/outputs/MLK_PMT_10104_-_V-004.xlsx
@@ -693,7 +693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -884,12 +884,12 @@
       </c>
       <c r="D8" s="29" t="inlineStr">
         <is>
-          <t>Expansion Tank</t>
+          <t>Air Receiver</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SHELL PLATE</t>
+          <t>Shell Plate</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -919,34 +919,34 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>100mm (HOT INSULATION)</t>
+          <t>HOT INSULATION 100mm</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>120 C</t>
+          <t>120 °C</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>4 BarG</t>
+          <t>4 Bar G</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>90 C</t>
+          <t>90 °C</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1 BarG</t>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="inlineStr">
         <is>
-          <t>ELLIPSOIDAL HEAD</t>
+          <t>Ellipsoidal Head</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -971,34 +971,34 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>100mm (HOT INSULATION)</t>
+          <t>HOT INSULATION 100mm</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>120 C</t>
+          <t>120 °C</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>4 BarG</t>
+          <t>4 Bar G</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>90 C</t>
+          <t>90 °C</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1 BarG</t>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="inlineStr">
         <is>
-          <t>FLANGE</t>
+          <t>Flange (J)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1023,34 +1023,34 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>100mm (HOT INSULATION)</t>
+          <t>HOT INSULATION 100mm</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>120 C</t>
+          <t>120 °C</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>4 BarG</t>
+          <t>4 Bar G</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>90 C</t>
+          <t>90 °C</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1 BarG</t>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="inlineStr">
         <is>
-          <t>NECK</t>
+          <t>Flange (J2)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1065,44 +1065,44 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>ASTM A312</t>
+          <t>ASTM A182</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>TP304L</t>
+          <t>F304L</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>100mm (HOT INSULATION)</t>
+          <t>HOT INSULATION 100mm</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>120 C</t>
+          <t>120 °C</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>4 BarG</t>
+          <t>4 Bar G</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>90 C</t>
+          <t>90 °C</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1 BarG</t>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="inlineStr">
         <is>
-          <t>NECK</t>
+          <t>Neck (K)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1117,37 +1117,765 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>ASTM A312</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>TP304L</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>HOT INSULATION 100mm</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>4 Bar G</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>1 Bar G</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Neck (L)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>HOT WATER</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>ASTM A312</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>TP304L</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>HOT INSULATION 100mm</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>4 Bar G</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1 Bar G</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Flange (M)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>HOT WATER</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>ASTM A182</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>F304L</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>HOT INSULATION 100mm</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>4 Bar G</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>1 Bar G</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Flange (M2)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>HOT WATER</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>ASTM A182</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>F304L</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>HOT INSULATION 100mm</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>4 Bar G</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>1 Bar G</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Neck (N)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>HOT WATER</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>ASTM A312</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>TP304L</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>HOT INSULATION 100mm</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>4 Bar G</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>1 Bar G</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Flange (P)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>HOT WATER</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>ASTM A182</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>F304L</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>HOT INSULATION 100mm</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>4 Bar G</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1 Bar G</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Neck (Q)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>HOT WATER</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>ASTM A312</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>TP304L</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>HOT INSULATION 100mm</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>4 Bar G</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>1 Bar G</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Neck (R)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>HOT WATER</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>ASTM A312</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>TP304L</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>HOT INSULATION 100mm</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>4 Bar G</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>1 Bar G</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Flange (S)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>HOT WATER</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>ASTM A182</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>F304L</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>HOT INSULATION 100mm</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>4 Bar G</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>1 Bar G</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Flange (S2)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>HOT WATER</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>ASTM A182</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>F304L</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>HOT INSULATION 100mm</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>4 Bar G</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>1 Bar G</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Neck (T)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>HOT WATER</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>ASTM A312</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>TP304L</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>HOT INSULATION 100mm</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>4 Bar G</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>1 Bar G</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Neck (U)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>HOT WATER</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>ASTM A312</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>TP304L</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>HOT INSULATION 100mm</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>4 Bar G</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>1 Bar G</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Blind Flange (V)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>HOT WATER</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>ASTM A182</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>F304L</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>HOT INSULATION 100mm</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>4 Bar G</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>1 Bar G</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Flange (X)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>HOT WATER</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>ASTM A182</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>F304L</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>HOT INSULATION 100mm</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>4 Bar G</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>1 Bar G</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Neck (Y)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>HOT WATER</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>ASTM A240</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>304L</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>100mm (HOT INSULATION)</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>120 C</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>4 BarG</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>90 C</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>1 BarG</t>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>HOT INSULATION 100mm</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>4 Bar G</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
@@ -1155,21 +1883,21 @@
   <mergeCells count="19">
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A8:A12"/>
     <mergeCell ref="H5:J6"/>
-    <mergeCell ref="C8:C12"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D8:D12"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B8:B26"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="K5:K7"/>
     <mergeCell ref="F5:F7"/>
+    <mergeCell ref="A8:A26"/>
+    <mergeCell ref="C8:C26"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="D8:D26"/>
     <mergeCell ref="L5:M6"/>
     <mergeCell ref="N5:O6"/>
   </mergeCells>

--- a/outputs/MLK_PMT_10104_-_V-004.xlsx
+++ b/outputs/MLK_PMT_10104_-_V-004.xlsx
@@ -693,7 +693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -884,17 +884,17 @@
       </c>
       <c r="D8" s="29" t="inlineStr">
         <is>
-          <t>Air Receiver</t>
+          <t>Condensate Vessel</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Shell Plate</t>
+          <t>SHELL PLATE</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Liquid</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>HOT INSULATION 100mm</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>4 Bar G</t>
+          <t>4 Bar.G</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -939,14 +939,14 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1 Bar G</t>
+          <t>1 Bar.G</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ellipsoidal Head</t>
+          <t>ELLIPSOIDAL HEAD</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>HOT INSULATION 100mm</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>4 Bar G</t>
+          <t>4 Bar.G</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -991,14 +991,14 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1 Bar G</t>
+          <t>1 Bar.G</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="inlineStr">
         <is>
-          <t>Flange (J)</t>
+          <t>FLANGE</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>HOT INSULATION 100mm</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>4 Bar G</t>
+          <t>4 Bar.G</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1043,14 +1043,14 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1 Bar G</t>
+          <t>1 Bar.G</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="inlineStr">
         <is>
-          <t>Flange (J2)</t>
+          <t>FLANGE</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>HOT INSULATION 100mm</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>4 Bar G</t>
+          <t>4 Bar.G</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1095,14 +1095,14 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1 Bar G</t>
+          <t>1 Bar.G</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="inlineStr">
         <is>
-          <t>Neck (K)</t>
+          <t>NECK</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>HOT INSULATION 100mm</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>4 Bar G</t>
+          <t>4 Bar.G</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1147,14 +1147,14 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1 Bar G</t>
+          <t>1 Bar.G</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="inlineStr">
         <is>
-          <t>Neck (L)</t>
+          <t>NECK</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>HOT INSULATION 100mm</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>4 Bar G</t>
+          <t>4 Bar.G</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1 Bar G</t>
+          <t>1 Bar.G</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="inlineStr">
         <is>
-          <t>Flange (M)</t>
+          <t>FLANGE</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>HOT INSULATION 100mm</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>4 Bar G</t>
+          <t>4 Bar.G</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1251,14 +1251,14 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1 Bar G</t>
+          <t>1 Bar.G</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="inlineStr">
         <is>
-          <t>Flange (M2)</t>
+          <t>FLANGE</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>HOT INSULATION 100mm</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>4 Bar G</t>
+          <t>4 Bar.G</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1303,14 +1303,14 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1 Bar G</t>
+          <t>1 Bar.G</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="inlineStr">
         <is>
-          <t>Neck (N)</t>
+          <t>NECK</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>HOT INSULATION 100mm</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>4 Bar G</t>
+          <t>4 Bar.G</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1355,14 +1355,14 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1 Bar G</t>
+          <t>1 Bar.G</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="inlineStr">
         <is>
-          <t>Flange (P)</t>
+          <t>FLANGE</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>HOT INSULATION 100mm</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>4 Bar G</t>
+          <t>4 Bar.G</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1407,14 +1407,14 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1 Bar G</t>
+          <t>1 Bar.G</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="inlineStr">
         <is>
-          <t>Neck (Q)</t>
+          <t>NECK</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>HOT INSULATION 100mm</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>4 Bar G</t>
+          <t>4 Bar.G</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1459,14 +1459,14 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1 Bar G</t>
+          <t>1 Bar.G</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="inlineStr">
         <is>
-          <t>Neck (R)</t>
+          <t>NECK</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>HOT INSULATION 100mm</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>4 Bar G</t>
+          <t>4 Bar.G</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1511,14 +1511,14 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1 Bar G</t>
+          <t>1 Bar.G</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="inlineStr">
         <is>
-          <t>Flange (S)</t>
+          <t>FLANGE</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>HOT INSULATION 100mm</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>4 Bar G</t>
+          <t>4 Bar.G</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1563,14 +1563,14 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1 Bar G</t>
+          <t>1 Bar.G</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="inlineStr">
         <is>
-          <t>Flange (S2)</t>
+          <t>NECK</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1585,17 +1585,17 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>ASTM A182</t>
+          <t>ASTM A312</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>F304L</t>
+          <t>TP304L</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>HOT INSULATION 100mm</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>4 Bar G</t>
+          <t>4 Bar.G</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1615,14 +1615,14 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1 Bar G</t>
+          <t>1 Bar.G</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="inlineStr">
         <is>
-          <t>Neck (T)</t>
+          <t>NECK</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>HOT INSULATION 100mm</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>4 Bar G</t>
+          <t>4 Bar.G</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1667,14 +1667,14 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>1 Bar G</t>
+          <t>1 Bar.G</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="inlineStr">
         <is>
-          <t>Neck (U)</t>
+          <t>BLIND FLANGE</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1689,17 +1689,17 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>ASTM A312</t>
+          <t>ASTM A182</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>TP304L</t>
+          <t>F304L</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>HOT INSULATION 100mm</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>4 Bar G</t>
+          <t>4 Bar.G</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1719,14 +1719,14 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>1 Bar G</t>
+          <t>1 Bar.G</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="inlineStr">
         <is>
-          <t>Blind Flange (V)</t>
+          <t>FLANGE</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>HOT INSULATION 100mm</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>4 Bar G</t>
+          <t>4 Bar.G</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -1771,14 +1771,14 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1 Bar G</t>
+          <t>1 Bar.G</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="inlineStr">
         <is>
-          <t>Flange (X)</t>
+          <t>NECK</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1793,17 +1793,17 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>ASTM A182</t>
+          <t>ASTM A240</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>F304L</t>
+          <t>304L</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>HOT INSULATION 100mm</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>4 Bar G</t>
+          <t>4 Bar.G</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -1823,14 +1823,14 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1 Bar G</t>
+          <t>1 Bar.G</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="inlineStr">
         <is>
-          <t>Neck (Y)</t>
+          <t>ANGLE BAR</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1840,42 +1840,510 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
+          <t>Carbon Steel</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>ASTM A36</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>316L</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>GRATING</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>HOT WATER</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Carbon Steel</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>ASTM A36</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ANGLE BAR</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>HOT WATER</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Carbon Steel</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>ASTM A36</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ANGLE BAR</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>HOT WATER</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
           <t>Stainless Steel</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>ASTM A240</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>304L</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>HOT INSULATION 100mm</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>120 °C</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>4 Bar G</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>90 °C</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>1 Bar G</t>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>ASTM A36</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>GR.70</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>FLAT PLATE</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>HOT WATER</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>ASTM A36</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Gr.70</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>FLAT PLATE</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>HOT WATER</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Carbon Steel</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>ASTM A36</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ANGLE BAR</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>HOT WATER</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Carbon Steel</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>ASTM A36</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ANGLE BAR</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>HOT WATER</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Carbon Steel</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>ASTM A36</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>SIDE RAIL</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>HOT WATER</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Carbon Steel</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>ASTM A36</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ROUND BAR</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>HOT WATER</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Carbon Steel</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>ASTM A36</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>120 °C</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>4 Bar.G</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>90 °C</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>1 Bar.G</t>
         </is>
       </c>
     </row>
@@ -1888,16 +2356,16 @@
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B8:B35"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B8:B26"/>
+    <mergeCell ref="A8:A35"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="K5:K7"/>
     <mergeCell ref="F5:F7"/>
-    <mergeCell ref="A8:A26"/>
-    <mergeCell ref="C8:C26"/>
+    <mergeCell ref="C8:C35"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D8:D26"/>
+    <mergeCell ref="D8:D35"/>
     <mergeCell ref="L5:M6"/>
     <mergeCell ref="N5:O6"/>
   </mergeCells>

--- a/outputs/MLK_PMT_10104_-_V-004.xlsx
+++ b/outputs/MLK_PMT_10104_-_V-004.xlsx
@@ -884,7 +884,7 @@
       </c>
       <c r="D8" s="29" t="inlineStr">
         <is>
-          <t>Condensate Vessel</t>
+          <t>Air Receiver</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>4 Bar.G</t>
+          <t>4 Bar G</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1 Bar.G</t>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>4 Bar.G</t>
+          <t>4 Bar G</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1 Bar.G</t>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>4 Bar.G</t>
+          <t>4 Bar G</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1 Bar.G</t>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>4 Bar.G</t>
+          <t>4 Bar G</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1 Bar.G</t>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>4 Bar.G</t>
+          <t>4 Bar G</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1 Bar.G</t>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>4 Bar.G</t>
+          <t>4 Bar G</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1 Bar.G</t>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>4 Bar.G</t>
+          <t>4 Bar G</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1 Bar.G</t>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>4 Bar.G</t>
+          <t>4 Bar G</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1 Bar.G</t>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>4 Bar.G</t>
+          <t>4 Bar G</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1 Bar.G</t>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>4 Bar.G</t>
+          <t>4 Bar G</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1 Bar.G</t>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>4 Bar.G</t>
+          <t>4 Bar G</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1 Bar.G</t>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>4 Bar.G</t>
+          <t>4 Bar G</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1 Bar.G</t>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>4 Bar.G</t>
+          <t>4 Bar G</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1 Bar.G</t>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>4 Bar.G</t>
+          <t>4 Bar G</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1 Bar.G</t>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>4 Bar.G</t>
+          <t>4 Bar G</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>1 Bar.G</t>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>4 Bar.G</t>
+          <t>4 Bar G</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>1 Bar.G</t>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>4 Bar.G</t>
+          <t>4 Bar G</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1 Bar.G</t>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>4 Bar.G</t>
+          <t>4 Bar G</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1 Bar.G</t>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Carbon Steel</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1848,11 +1848,6 @@
           <t>ASTM A36</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>316L</t>
-        </is>
-      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1865,7 +1860,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>4 Bar.G</t>
+          <t>4 Bar G</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -1875,7 +1870,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1 Bar.G</t>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1887,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Carbon Steel</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1900,11 +1895,6 @@
           <t>ASTM A36</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1917,7 +1907,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>4 Bar.G</t>
+          <t>4 Bar G</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -1927,7 +1917,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>1 Bar.G</t>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
@@ -1944,7 +1934,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Carbon Steel</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1952,11 +1942,6 @@
           <t>ASTM A36</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1969,7 +1954,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>4 Bar.G</t>
+          <t>4 Bar G</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -1979,7 +1964,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>1 Bar.G</t>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
@@ -1996,7 +1981,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2004,11 +1989,6 @@
           <t>ASTM A36</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>GR.70</t>
-        </is>
-      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2021,7 +2001,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>4 Bar.G</t>
+          <t>4 Bar G</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2031,7 +2011,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1 Bar.G</t>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
@@ -2048,7 +2028,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2056,11 +2036,6 @@
           <t>ASTM A36</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Gr.70</t>
-        </is>
-      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2073,7 +2048,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>4 Bar.G</t>
+          <t>4 Bar G</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2083,7 +2058,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>1 Bar.G</t>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
@@ -2100,7 +2075,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Carbon Steel</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2108,11 +2083,6 @@
           <t>ASTM A36</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2125,7 +2095,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>4 Bar.G</t>
+          <t>4 Bar G</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2135,7 +2105,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1 Bar.G</t>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
@@ -2152,7 +2122,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Carbon Steel</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2160,11 +2130,6 @@
           <t>ASTM A36</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2177,7 +2142,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>4 Bar.G</t>
+          <t>4 Bar G</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2187,7 +2152,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1 Bar.G</t>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2169,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Carbon Steel</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2212,11 +2177,6 @@
           <t>ASTM A36</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2229,7 +2189,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>4 Bar.G</t>
+          <t>4 Bar G</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2239,7 +2199,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1 Bar.G</t>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2216,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Carbon Steel</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2264,11 +2224,6 @@
           <t>ASTM A36</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2281,7 +2236,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>4 Bar.G</t>
+          <t>4 Bar G</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2291,7 +2246,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>1 Bar.G</t>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
@@ -2308,7 +2263,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Carbon Steel</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2316,11 +2271,6 @@
           <t>ASTM A36</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2333,7 +2283,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>4 Bar.G</t>
+          <t>4 Bar G</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2343,7 +2293,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1 Bar.G</t>
+          <t>1 Bar G</t>
         </is>
       </c>
     </row>
